--- a/laba1_clouds/ЛР1_Вариант7.xlsx
+++ b/laba1_clouds/ЛР1_Вариант7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
   <si>
     <t>IT Tower</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Sensitive Data Discovery</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>S3 Scanning</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Application Services</t>
   </si>
   <si>
-    <t>Streaming / Messaging Service</t>
-  </si>
-  <si>
     <t>Managed Apache Kafka</t>
   </si>
   <si>
@@ -255,15 +249,9 @@
     <t>AI</t>
   </si>
   <si>
-    <t>Text-to-Speech</t>
-  </si>
-  <si>
     <t>Additional Costs</t>
   </si>
   <si>
-    <t>Recommendation System</t>
-  </si>
-  <si>
     <t>Inference (TPS-hours)</t>
   </si>
   <si>
@@ -276,39 +264,24 @@
     <t>Storage&amp;Content Delivery</t>
   </si>
   <si>
-    <t>Object Storage</t>
-  </si>
-  <si>
-    <t>Amazon S3</t>
-  </si>
-  <si>
     <t>Data Retrival</t>
   </si>
   <si>
     <t>Data Replication (RTC)</t>
   </si>
   <si>
-    <t>Content Delivery</t>
-  </si>
-  <si>
     <t>Data Storage</t>
   </si>
   <si>
     <t>Analytics</t>
   </si>
   <si>
-    <t>Search Service</t>
-  </si>
-  <si>
     <t>Amazon Elasticsearch</t>
   </si>
   <si>
     <t>Runtime</t>
   </si>
   <si>
-    <t>Amazon Elasticsearch Service</t>
-  </si>
-  <si>
     <t>CloudFront Transfer</t>
   </si>
   <si>
@@ -367,6 +340,57 @@
   </si>
   <si>
     <t>API Request Tier 6</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>Retrieval</t>
+  </si>
+  <si>
+    <t>Reduced Redundancy</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Glacier Deep Archive</t>
+  </si>
+  <si>
+    <t>Intelligent-Tiering (Frequent Access)</t>
+  </si>
+  <si>
+    <t>Intelligent-Tiering (Infrequent Access)</t>
+  </si>
+  <si>
+    <t>Reduced Redundancy Storage</t>
+  </si>
+  <si>
+    <t>Glacier Instant Access</t>
+  </si>
+  <si>
+    <t>Standard - Infrequent Access</t>
+  </si>
+  <si>
+    <t>Management/Monitoring</t>
+  </si>
+  <si>
+    <t>Early Delete</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Storage Metadata</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Real-Time Inference</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -452,12 +476,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -469,13 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top style="thin">
-        <color rgb="FFA9D08E"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFA9D08E"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,8 +530,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -714,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -765,19 +801,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -785,19 +821,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -808,19 +844,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -831,19 +867,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -854,19 +890,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -877,13 +913,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
@@ -891,19 +927,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -914,19 +950,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -937,19 +973,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -960,19 +996,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -983,19 +1019,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>55</v>
@@ -1007,19 +1043,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>55</v>
@@ -1030,19 +1066,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>55</v>
@@ -1053,19 +1089,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>55</v>
@@ -1076,19 +1112,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>55</v>
@@ -1099,19 +1135,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>55</v>
@@ -1122,19 +1158,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>55</v>
@@ -1145,19 +1181,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>55</v>
@@ -1168,19 +1204,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>55</v>
@@ -1191,19 +1227,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>20</v>
@@ -1214,19 +1250,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -1237,19 +1273,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -1260,19 +1296,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
@@ -1283,19 +1319,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
@@ -1306,19 +1342,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -1329,19 +1365,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
@@ -1352,19 +1388,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>28</v>
@@ -1375,19 +1411,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
@@ -1398,19 +1434,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>20</v>
@@ -1421,19 +1457,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>20</v>
@@ -1444,19 +1480,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>20</v>
@@ -1467,19 +1503,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
@@ -1490,19 +1526,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
@@ -1513,19 +1549,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -1536,19 +1572,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -1559,19 +1595,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -1582,19 +1618,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>20</v>
@@ -1605,19 +1641,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
@@ -1628,19 +1664,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>20</v>
@@ -1651,19 +1687,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>20</v>
@@ -1674,19 +1710,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>20</v>
@@ -1697,19 +1733,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>20</v>
@@ -1720,19 +1756,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>20</v>
@@ -1743,19 +1779,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>20</v>
@@ -1766,19 +1802,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>20</v>
@@ -1789,19 +1825,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>20</v>
@@ -1812,19 +1848,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>20</v>
@@ -1835,19 +1871,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>20</v>
@@ -1858,19 +1894,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>20</v>
@@ -1881,19 +1917,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>20</v>
@@ -1904,19 +1940,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>20</v>
@@ -1927,19 +1963,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>20</v>
@@ -1950,19 +1986,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>20</v>
@@ -1970,6 +2006,108 @@
       <c r="G54" s="10" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:J54">
